--- a/Data_preparation/datasets/final_data/Tempus_AI_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Tempus_AI_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,34 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
+    <t>TEMP</t>
   </si>
 </sst>
 </file>
@@ -682,19 +655,16 @@
         <v>44926</v>
       </c>
       <c r="D2">
-        <v>17.67499923706055</v>
+        <v>36.49796724875108</v>
       </c>
       <c r="E2">
-        <v>19.1200008392334</v>
+        <v>39.3697624206543</v>
       </c>
       <c r="F2">
-        <v>19.76000022888184</v>
+        <v>39.3697624206543</v>
       </c>
       <c r="G2">
-        <v>17.08499908447266</v>
-      </c>
-      <c r="H2">
-        <v>795535712</v>
+        <v>36.23081262504466</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -726,22 +696,19 @@
         <v>45016</v>
       </c>
       <c r="D3">
-        <v>4646.163088703966</v>
+        <v>39.17663253636952</v>
       </c>
       <c r="E3">
-        <v>4397.0390625</v>
+        <v>38.30202484130859</v>
       </c>
       <c r="F3">
-        <v>4647.12125803552</v>
+        <v>39.17663253636952</v>
       </c>
       <c r="G3">
-        <v>4224.568582820331</v>
-      </c>
-      <c r="H3">
-        <v>933160187</v>
+        <v>37.487412325024</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <v>115624000</v>
@@ -803,22 +770,19 @@
         <v>45107</v>
       </c>
       <c r="D4">
-        <v>299.8867087280755</v>
+        <v>39.96397228402768</v>
       </c>
       <c r="E4">
-        <v>279.6763610839844</v>
+        <v>40.53743743896485</v>
       </c>
       <c r="F4">
-        <v>311.3327623979251</v>
+        <v>41.12443754708946</v>
       </c>
       <c r="G4">
-        <v>274.7053735580706</v>
-      </c>
-      <c r="H4">
-        <v>193969420</v>
+        <v>38.71809526174923</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P4">
         <v>132417000</v>
@@ -880,22 +844,19 @@
         <v>45199</v>
       </c>
       <c r="D5">
-        <v>1366.269412157012</v>
+        <v>34.80086284580503</v>
       </c>
       <c r="E5">
-        <v>1400.426147460938</v>
+        <v>33.37158584594727</v>
       </c>
       <c r="F5">
-        <v>1722.475366040805</v>
+        <v>35.61070115027061</v>
       </c>
       <c r="G5">
-        <v>1356.510344927319</v>
-      </c>
-      <c r="H5">
-        <v>134011000</v>
+        <v>32.67307002839149</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>136057000</v>
@@ -957,22 +918,19 @@
         <v>45291</v>
       </c>
       <c r="D6">
-        <v>124.5980016318655</v>
+        <v>40.21736579158045</v>
       </c>
       <c r="E6">
-        <v>132.1493988037109</v>
+        <v>38.85866546630859</v>
       </c>
       <c r="F6">
-        <v>136.1187273141222</v>
+        <v>40.21736579158045</v>
       </c>
       <c r="G6">
-        <v>122.5649354352075</v>
-      </c>
-      <c r="H6">
-        <v>229140423</v>
+        <v>38.20419139100507</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>284658000</v>
@@ -1052,22 +1010,19 @@
         <v>45382</v>
       </c>
       <c r="D7">
-        <v>4156.728619089413</v>
+        <v>42.93101673829687</v>
       </c>
       <c r="E7">
-        <v>4553.76318359375</v>
+        <v>42.29515838623047</v>
       </c>
       <c r="F7">
-        <v>5096.40944657156</v>
+        <v>43.00026770789886</v>
       </c>
       <c r="G7">
-        <v>3750.957352676668</v>
-      </c>
-      <c r="H7">
-        <v>175134528</v>
+        <v>41.25335384901548</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>386953000</v>
@@ -1150,22 +1105,19 @@
         <v>45473</v>
       </c>
       <c r="D8">
-        <v>2890.935410112718</v>
+        <v>44.08157169323555</v>
       </c>
       <c r="E8">
-        <v>2691.009033203125</v>
+        <v>45.70761489868164</v>
       </c>
       <c r="F8">
-        <v>3014.889763796666</v>
+        <v>46.08213531289125</v>
       </c>
       <c r="G8">
-        <v>2519.072349060875</v>
-      </c>
-      <c r="H8">
-        <v>104878138</v>
+        <v>43.79935209006902</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>5401154920</v>
@@ -1266,22 +1218,19 @@
         <v>45565</v>
       </c>
       <c r="D9">
-        <v>31.23959479848472</v>
+        <v>48.59069480363591</v>
       </c>
       <c r="E9">
-        <v>28.76222801208496</v>
+        <v>46.50393676757812</v>
       </c>
       <c r="F9">
-        <v>31.50219696309808</v>
+        <v>48.94718943000097</v>
       </c>
       <c r="G9">
-        <v>28.63340577082776</v>
-      </c>
-      <c r="H9">
-        <v>1299391231</v>
+        <v>46.48512187778989</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>8734439099</v>
@@ -1382,22 +1331,19 @@
         <v>45657</v>
       </c>
       <c r="D10">
-        <v>2476.994723535176</v>
+        <v>43.63729858398438</v>
       </c>
       <c r="E10">
-        <v>2384.00341796875</v>
+        <v>44.44160079956055</v>
       </c>
       <c r="F10">
-        <v>2758.415779854624</v>
+        <v>45.96900177001953</v>
       </c>
       <c r="G10">
-        <v>2325.761495008725</v>
-      </c>
-      <c r="H10">
-        <v>175134528</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>5315366258</v>
@@ -1498,22 +1444,19 @@
         <v>45747</v>
       </c>
       <c r="D11">
-        <v>3590.70430246099</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E11">
-        <v>3714.694091796875</v>
+        <v>43.81499862670898</v>
       </c>
       <c r="F11">
-        <v>3714.694091796875</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="G11">
-        <v>3048.748932944461</v>
-      </c>
-      <c r="H11">
-        <v>913159452</v>
+        <v>37.27999877929688</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>8307540648</v>
@@ -1614,22 +1557,19 @@
         <v>45838</v>
       </c>
       <c r="D12">
-        <v>2937</v>
+        <v>48.95240020751953</v>
       </c>
       <c r="E12">
-        <v>3025</v>
+        <v>49.81549835205078</v>
       </c>
       <c r="F12">
-        <v>3125</v>
+        <v>51.80500030517578</v>
       </c>
       <c r="G12">
-        <v>2890</v>
-      </c>
-      <c r="H12">
-        <v>52985470</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>10999806207</v>
